--- a/testcase/PageObject.xlsx
+++ b/testcase/PageObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>是否执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,6 +179,9 @@
   <si>
     <t>kj080982</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -693,7 +696,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -724,7 +727,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -755,7 +758,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
@@ -784,7 +787,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>

--- a/testcase/PageObject.xlsx
+++ b/testcase/PageObject.xlsx
@@ -614,7 +614,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/testcase/PageObject.xlsx
+++ b/testcase/PageObject.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="QQEmailLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>是否执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,9 +177,6 @@
   <si>
     <t>kj080982</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -614,7 +609,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -696,7 +691,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -727,7 +722,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -758,7 +753,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
@@ -787,7 +782,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -826,32 +821,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/testcase/PageObject.xlsx
+++ b/testcase/PageObject.xlsx
@@ -175,7 +175,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>kj080982</t>
+    <t>******</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/testcase/PageObject.xlsx
+++ b/testcase/PageObject.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QQEmailLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="163EmailLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>是否执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,7 +176,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>******</t>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ById::com.netease.mail:id/editor_email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ById::com.netease.mail:id/editor_password</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -316,8 +341,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -608,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -714,8 +767,8 @@
       <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6">
-        <v>1025165571</v>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -746,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -821,4 +874,158 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3">
+      <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
+      <formula1>"NATIVE_APP,WEBVIEW"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testcase/PageObject.xlsx
+++ b/testcase/PageObject.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumXM/testcase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="QQEmailLogin" sheetId="1" r:id="rId1"/>
     <sheet name="163EmailLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -207,19 +220,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -232,7 +245,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,6 +384,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,12 +435,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -449,14 +467,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -483,6 +502,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,27 +678,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -742,7 +762,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -773,7 +793,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -804,7 +824,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -833,7 +853,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -877,27 +897,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -961,7 +981,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -990,7 +1010,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>

--- a/testcase/PageObject.xlsx
+++ b/testcase/PageObject.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="QQEmailLogin" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>是否执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ByXpath:://*[1]//*[1]//*[2]//*[1]//*[2]//*[1]//*[1]//*[1]//*[1]//*[2]//*[1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -128,10 +124,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ByName::支持QQ号/手机号/邮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>sendKeys</t>
   </si>
   <si>
@@ -148,10 +140,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ByName::QQ密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Steps04</t>
   </si>
   <si>
@@ -168,10 +156,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ByName::登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Steps05</t>
   </si>
   <si>
@@ -215,6 +199,35 @@
   <si>
     <t>ById::com.netease.mail:id/editor_password</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByIOSNsPredicateString::type == 'XCUIElementTypeTextField' AND value == '支持QQ号/邮箱/手机号登录'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps06</t>
+  </si>
+  <si>
+    <t>等待5秒</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>miao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByIOSNsPredicateString::type == 'XCUIElementTypeSecureTextField' AND value == '密码'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByXpath:://XCUIElementTypeOther[@name="QQ登录"]/XCUIElementTypeOther[6]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByIOSNsPredicateString::type == 'XCUIElementTypeStaticText' AND value == 'QQ邮箱' AND name == 'QQ邮箱'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -316,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +362,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -733,7 +749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -750,13 +766,11 @@
         <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="4"/>
@@ -770,30 +784,24 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -801,30 +809,28 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -832,28 +838,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
+      <c r="F5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -861,33 +867,60 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7">
       <formula1>"NATIVE_APP,WEBVIEW"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4:H6">
       <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
     </dataValidation>
   </dataValidations>
@@ -958,25 +991,25 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4">
         <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -987,25 +1020,25 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4">
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1016,13 +1049,13 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>20</v>
